--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/word_level_predictions_123.xlsx
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="F230" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G230" s="2" t="b">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12566,418 +12566,418 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>19</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>19</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>19</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>19</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>19</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>19</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>19</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>19</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>14</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori1/123/word_level_predictions_123.xlsx
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -7141,11 +7141,11 @@
         </is>
       </c>
       <c r="I129" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K129" s="2" t="b">
@@ -7193,11 +7193,11 @@
         </is>
       </c>
       <c r="I130" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K130" s="2" t="b">
@@ -7245,11 +7245,11 @@
         </is>
       </c>
       <c r="I131" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K131" s="2" t="b">
@@ -7297,11 +7297,11 @@
         </is>
       </c>
       <c r="I132" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K132" s="2" t="b">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7349,11 +7349,11 @@
         </is>
       </c>
       <c r="I133" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G180" s="2" t="b">
@@ -9793,11 +9793,11 @@
         </is>
       </c>
       <c r="I180" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K180" s="2" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9845,11 +9845,11 @@
         </is>
       </c>
       <c r="I181" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9897,11 +9897,11 @@
         </is>
       </c>
       <c r="I182" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9949,11 +9949,11 @@
         </is>
       </c>
       <c r="I183" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K183" s="2" t="b">
@@ -10001,11 +10001,11 @@
         </is>
       </c>
       <c r="I184" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K184" s="2" t="b">
@@ -10053,11 +10053,11 @@
         </is>
       </c>
       <c r="I185" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K185" s="2" t="b">
@@ -10105,11 +10105,11 @@
         </is>
       </c>
       <c r="I186" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K186" s="2" t="b">
@@ -10157,11 +10157,11 @@
         </is>
       </c>
       <c r="I187" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K187" s="2" t="b">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="I188" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K188" s="2" t="b">
@@ -10261,11 +10261,11 @@
         </is>
       </c>
       <c r="I189" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K189" s="2" t="b">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G190" s="2" t="b">
@@ -10313,11 +10313,11 @@
         </is>
       </c>
       <c r="I190" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K190" s="2" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="F230" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G230" s="2" t="b">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12566,418 +12566,418 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
